--- a/benchmarks/stress_tests/results.xlsx
+++ b/benchmarks/stress_tests/results.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="-20" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$20:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$38:$E$52</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>Dynamic</t>
   </si>
@@ -63,6 +64,21 @@
   </si>
   <si>
     <t>Static file: 41,808 bytes</t>
+  </si>
+  <si>
+    <t>Non-Concurrent Test: Static File (41,808 bytes)</t>
+  </si>
+  <si>
+    <t>(longest</t>
+  </si>
+  <si>
+    <t>request)</t>
+  </si>
+  <si>
+    <t>Pool Size</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -235,7 +251,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -282,27 +298,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -326,8 +346,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="56">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -351,6 +384,11 @@
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -373,6 +411,11 @@
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,10 +748,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -726,34 +769,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="32" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:18" ht="16">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -774,10 +817,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="16">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3">
         <v>5.3449999999999998</v>
       </c>
@@ -798,10 +841,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="16">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="3">
         <v>53.454999999999998</v>
       </c>
@@ -822,10 +865,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="16">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="3">
         <v>0.53500000000000003</v>
       </c>
@@ -846,64 +889,64 @@
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="16">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7">
+      <c r="B7" s="8"/>
+      <c r="C7" s="4">
         <v>1130000</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>2070000</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>48007208</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>1130000</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>2070000</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>48007249</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="16">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7">
+      <c r="B8" s="8"/>
+      <c r="C8" s="4">
         <f t="shared" ref="C8:H8" si="0">C7/C4</f>
         <v>211412.53507951356</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>89933.527392796634</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>1811182.6756206141</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>215443.27931363203</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>89715.251592770772</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>1890346.8656481334</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="16" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>0.5</v>
       </c>
       <c r="C9" s="3">
@@ -927,8 +970,8 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="16">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9">
+      <c r="A10" s="16"/>
+      <c r="B10" s="5">
         <v>0.66</v>
       </c>
       <c r="C10" s="3">
@@ -952,8 +995,8 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="16">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9">
+      <c r="A11" s="16"/>
+      <c r="B11" s="5">
         <v>0.75</v>
       </c>
       <c r="C11" s="3">
@@ -977,8 +1020,8 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="16">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9">
+      <c r="A12" s="16"/>
+      <c r="B12" s="5">
         <v>0.8</v>
       </c>
       <c r="C12" s="3">
@@ -1003,8 +1046,8 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="16">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9">
+      <c r="A13" s="16"/>
+      <c r="B13" s="5">
         <v>0.9</v>
       </c>
       <c r="C13" s="3">
@@ -1029,8 +1072,8 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="16">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9">
+      <c r="A14" s="16"/>
+      <c r="B14" s="5">
         <v>0.95</v>
       </c>
       <c r="C14" s="3">
@@ -1055,8 +1098,8 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="16">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9">
+      <c r="A15" s="16"/>
+      <c r="B15" s="5">
         <v>0.98</v>
       </c>
       <c r="C15" s="3">
@@ -1081,8 +1124,8 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9">
+      <c r="A16" s="16"/>
+      <c r="B16" s="5">
         <v>0.99</v>
       </c>
       <c r="C16" s="3">
@@ -1106,8 +1149,8 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="16">
-      <c r="A17" s="8"/>
-      <c r="B17" s="10">
+      <c r="A17" s="16"/>
+      <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="C17" s="3">
@@ -1145,16 +1188,16 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="16">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="P20" s="1"/>
@@ -1162,26 +1205,26 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="32" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="4" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="N21" s="1"/>
       <c r="P21" s="1"/>
       <c r="R21" s="1"/>
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="16">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="3" t="s">
         <v>2</v>
       </c>
@@ -1207,10 +1250,10 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" ht="16">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="3">
         <v>17.062999999999999</v>
       </c>
@@ -1236,10 +1279,10 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" ht="16">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="3">
         <v>170.63300000000001</v>
       </c>
@@ -1265,10 +1308,10 @@
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="16">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="3">
         <v>1.706</v>
       </c>
@@ -1294,26 +1337,26 @@
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" ht="16">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7">
+      <c r="B26" s="8"/>
+      <c r="C26" s="4">
         <v>418760000</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
         <v>421250000</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="4">
         <v>420530000</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="4">
         <v>418760000</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="4">
         <v>421250000</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="4">
         <v>420530000</v>
       </c>
       <c r="L26" s="1"/>
@@ -1322,31 +1365,31 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="15" customHeight="1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7">
+      <c r="B27" s="8"/>
+      <c r="C27" s="4">
         <f>C26/C23</f>
         <v>24541991.443474185</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="4">
         <f t="shared" ref="D27" si="1">D26/D23</f>
         <v>10176103.971398203</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="4">
         <f>E26/E23</f>
         <v>26681682.634350613</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="4">
         <f t="shared" ref="F27:H27" si="2">F26/F23</f>
         <v>22266177.487105865</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="4">
         <f t="shared" si="2"/>
         <v>9867650.5036308281</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="4">
         <f t="shared" si="2"/>
         <v>24033032.346553892</v>
       </c>
@@ -1355,10 +1398,10 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="16">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="5">
         <v>0.5</v>
       </c>
       <c r="C28" s="3">
@@ -1383,8 +1426,8 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="16">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9">
+      <c r="A29" s="16"/>
+      <c r="B29" s="5">
         <v>0.66</v>
       </c>
       <c r="C29" s="3">
@@ -1409,8 +1452,8 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="16">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9">
+      <c r="A30" s="16"/>
+      <c r="B30" s="5">
         <v>0.75</v>
       </c>
       <c r="C30" s="3">
@@ -1435,8 +1478,8 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:22" ht="16">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9">
+      <c r="A31" s="16"/>
+      <c r="B31" s="5">
         <v>0.8</v>
       </c>
       <c r="C31" s="3">
@@ -1458,11 +1501,17 @@
         <v>20</v>
       </c>
       <c r="L31" s="1"/>
+      <c r="P31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:22" ht="16">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9">
+      <c r="A32" s="16"/>
+      <c r="B32" s="5">
         <v>0.9</v>
       </c>
       <c r="C32" s="3">
@@ -1484,11 +1533,17 @@
         <v>29</v>
       </c>
       <c r="L32" s="1"/>
+      <c r="P32" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" ht="16">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9">
+    <row r="33" spans="1:19" ht="16">
+      <c r="A33" s="16"/>
+      <c r="B33" s="5">
         <v>0.95</v>
       </c>
       <c r="C33" s="3">
@@ -1510,11 +1565,17 @@
         <v>44</v>
       </c>
       <c r="L33" s="1"/>
+      <c r="P33" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" ht="16">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9">
+    <row r="34" spans="1:19" ht="16">
+      <c r="A34" s="16"/>
+      <c r="B34" s="5">
         <v>0.98</v>
       </c>
       <c r="C34" s="3">
@@ -1536,10 +1597,16 @@
         <v>69</v>
       </c>
       <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" ht="16">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9">
+      <c r="P34" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="16">
+      <c r="A35" s="16"/>
+      <c r="B35" s="5">
         <v>0.99</v>
       </c>
       <c r="C35" s="3">
@@ -1561,10 +1628,16 @@
         <v>85</v>
       </c>
       <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" ht="16">
-      <c r="A36" s="8"/>
-      <c r="B36" s="10">
+      <c r="P35" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="16">
+      <c r="A36" s="16"/>
+      <c r="B36" s="6">
         <v>1</v>
       </c>
       <c r="C36" s="3">
@@ -1585,9 +1658,428 @@
       <c r="H36" s="3">
         <v>157</v>
       </c>
+      <c r="P36" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="P37" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="Q37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="16">
+      <c r="A38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="P38" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="Q38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="16">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>97</v>
+      </c>
+      <c r="R39" t="s">
+        <v>14</v>
+      </c>
+      <c r="S39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="16">
+      <c r="A40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="3">
+        <v>25.439</v>
+      </c>
+      <c r="D40" s="3">
+        <v>55.273000000000003</v>
+      </c>
+      <c r="E40" s="3">
+        <v>26.946000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="16">
+      <c r="A41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="3">
+        <v>2.544</v>
+      </c>
+      <c r="D41" s="3">
+        <v>5.5270000000000001</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2.6949999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="16">
+      <c r="A42" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="4">
+        <v>418760000</v>
+      </c>
+      <c r="D42" s="4">
+        <v>421250000</v>
+      </c>
+      <c r="E42" s="4">
+        <v>420530000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="16">
+      <c r="A43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="4">
+        <f>C42/C40</f>
+        <v>16461338.889107276</v>
+      </c>
+      <c r="D43" s="4">
+        <f>D42/D40</f>
+        <v>7621261.7371953754</v>
+      </c>
+      <c r="E43" s="4">
+        <f>E42/E40</f>
+        <v>15606397.981147479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="16">
+      <c r="A44" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="20">
+        <v>2</v>
+      </c>
+      <c r="D44" s="20">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="16">
+      <c r="A45" s="16"/>
+      <c r="B45" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="C45" s="20">
+        <v>2</v>
+      </c>
+      <c r="D45" s="20">
+        <v>5</v>
+      </c>
+      <c r="E45" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="16">
+      <c r="A46" s="16"/>
+      <c r="B46" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C46" s="20">
+        <v>3</v>
+      </c>
+      <c r="D46" s="20">
+        <v>6</v>
+      </c>
+      <c r="E46" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="16">
+      <c r="A47" s="16"/>
+      <c r="B47" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C47" s="20">
+        <v>3</v>
+      </c>
+      <c r="D47" s="20">
+        <v>6</v>
+      </c>
+      <c r="E47" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="16">
+      <c r="A48" s="16"/>
+      <c r="B48" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="C48" s="20">
+        <v>3</v>
+      </c>
+      <c r="D48" s="20">
+        <v>6</v>
+      </c>
+      <c r="E48" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="16">
+      <c r="A49" s="16"/>
+      <c r="B49" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C49" s="20">
+        <v>4</v>
+      </c>
+      <c r="D49" s="20">
+        <v>8</v>
+      </c>
+      <c r="E49" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="16">
+      <c r="A50" s="16"/>
+      <c r="B50" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="C50" s="20">
+        <v>5</v>
+      </c>
+      <c r="D50" s="20">
+        <v>12</v>
+      </c>
+      <c r="E50" s="20">
+        <v>6</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="16">
+      <c r="A51" s="16"/>
+      <c r="B51" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="C51" s="20">
+        <v>8</v>
+      </c>
+      <c r="D51" s="20">
+        <v>15</v>
+      </c>
+      <c r="E51" s="20">
+        <v>9</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="16">
+      <c r="A52" s="16"/>
+      <c r="B52" s="6">
+        <v>1</v>
+      </c>
+      <c r="C52" s="20">
+        <v>97</v>
+      </c>
+      <c r="D52" s="20">
+        <v>97</v>
+      </c>
+      <c r="E52" s="20">
+        <v>42</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="M53" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="M54" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="M55" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="M56" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="N56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="M57" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="N57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="M58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>42</v>
+      </c>
+      <c r="O58" t="s">
+        <v>14</v>
+      </c>
+      <c r="P58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="N62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="N63" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="O63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="N64" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="O64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="14:17">
+      <c r="N65" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="14:17">
+      <c r="N66" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="14:17">
+      <c r="N67" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="O67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="14:17">
+      <c r="N68" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="14:17">
+      <c r="N69" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="O69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="14:17">
+      <c r="N70" s="1">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>97</v>
+      </c>
+      <c r="P70" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="27">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
@@ -1596,14 +2088,6 @@
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C21:E21"/>
@@ -1611,11 +2095,92 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="94" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>21.157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>22.074999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>22.577999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>22.756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>22.983000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>23.085000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>